--- a/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>39</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>144</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>72</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>36</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>12</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>12</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>12</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>24</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>96</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>24</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>132</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>12</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>12</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>12</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>258</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>54</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>48</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>36</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>252</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>12</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>24</v>

--- a/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,425 @@
       </c>
       <c r="B9" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.04141555922648</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.89463786346471</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.504501601147632</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.75094240637128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.718477246528742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>93.17068477301973</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-13.15276842083295</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.37212967009225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.332761515784829</v>
+      </c>
+      <c r="D6" t="n">
+        <v>95.08556305402827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.409449124518142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.7710665832185</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.550586588521046</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.15569614795339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.192809823371654</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90.62564415801752</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.42161825488506</v>
+      </c>
+      <c r="D10" t="n">
+        <v>91.21268816870551</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-15.4314124584812</v>
+      </c>
+      <c r="D11" t="n">
+        <v>84.2143259788097</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.70541625179816</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91.54292080850638</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-19.44637413485728</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84.84909415473095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-17.89100328643057</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80.59848363195731</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-18.58192145751834</v>
+      </c>
+      <c r="D15" t="n">
+        <v>87.34580422128074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-15.88571611560051</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86.17075773754024</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-19.15308617166201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>85.97924587308194</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-20.76880624442041</v>
+      </c>
+      <c r="D18" t="n">
+        <v>83.54310726343192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.87360281989473</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77.49945014198563</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-38.45585193628231</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76.50335660548777</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-32.50604405668875</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70.63683375422127</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-32.66613310934194</v>
+      </c>
+      <c r="D22" t="n">
+        <v>74.9137140187202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-27.56015455405065</v>
+      </c>
+      <c r="D23" t="n">
+        <v>72.87064095799525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-29.89117076722463</v>
+      </c>
+      <c r="D24" t="n">
+        <v>70.45270571928397</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-26.76880738189304</v>
+      </c>
+      <c r="D25" t="n">
+        <v>73.9507813634668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-31.2394852069691</v>
+      </c>
+      <c r="D26" t="n">
+        <v>71.39431982806035</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-34.16106523032527</v>
+      </c>
+      <c r="D27" t="n">
+        <v>70.98451437229643</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-32.21944509803892</v>
+      </c>
+      <c r="D28" t="n">
+        <v>70.66988438133897</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ9M15Y_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>45</v>
       </c>
-      <c r="C2" t="n">
-        <v>-10.04141555922648</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94.89463786346471</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.504501601147632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>94.75094240637128</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>-9.718477246528742</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93.17068477301973</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
-        <v>-13.15276842083295</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.37212967009225</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>42</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.332761515784829</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95.08556305402827</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>42</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.409449124518142</v>
-      </c>
-      <c r="D7" t="n">
-        <v>95.7710665832185</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>-8.550586588521046</v>
-      </c>
-      <c r="D8" t="n">
-        <v>94.15569614795339</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>38</v>
       </c>
-      <c r="C9" t="n">
-        <v>-6.192809823371654</v>
-      </c>
-      <c r="D9" t="n">
-        <v>90.62564415801752</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>-11.42161825488506</v>
-      </c>
-      <c r="D10" t="n">
-        <v>91.21268816870551</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>37</v>
       </c>
-      <c r="C11" t="n">
-        <v>-15.4314124584812</v>
-      </c>
-      <c r="D11" t="n">
-        <v>84.2143259788097</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>36</v>
       </c>
-      <c r="C12" t="n">
-        <v>-12.70541625179816</v>
-      </c>
-      <c r="D12" t="n">
-        <v>91.54292080850638</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>34</v>
       </c>
-      <c r="C13" t="n">
-        <v>-19.44637413485728</v>
-      </c>
-      <c r="D13" t="n">
-        <v>84.84909415473095</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>34</v>
       </c>
-      <c r="C14" t="n">
-        <v>-17.89100328643057</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80.59848363195731</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>33</v>
       </c>
-      <c r="C15" t="n">
-        <v>-18.58192145751834</v>
-      </c>
-      <c r="D15" t="n">
-        <v>87.34580422128074</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
-        <v>-15.88571611560051</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86.17075773754024</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>-19.15308617166201</v>
-      </c>
-      <c r="D17" t="n">
-        <v>85.97924587308194</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>31</v>
       </c>
-      <c r="C18" t="n">
-        <v>-20.76880624442041</v>
-      </c>
-      <c r="D18" t="n">
-        <v>83.54310726343192</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>23</v>
       </c>
-      <c r="C19" t="n">
-        <v>-25.87360281989473</v>
-      </c>
-      <c r="D19" t="n">
-        <v>77.49945014198563</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>22</v>
       </c>
-      <c r="C20" t="n">
-        <v>-38.45585193628231</v>
-      </c>
-      <c r="D20" t="n">
-        <v>76.50335660548777</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>22</v>
       </c>
-      <c r="C21" t="n">
-        <v>-32.50604405668875</v>
-      </c>
-      <c r="D21" t="n">
-        <v>70.63683375422127</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>-32.66613310934194</v>
-      </c>
-      <c r="D22" t="n">
-        <v>74.9137140187202</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="n">
-        <v>-27.56015455405065</v>
-      </c>
-      <c r="D23" t="n">
-        <v>72.87064095799525</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>20</v>
       </c>
-      <c r="C24" t="n">
-        <v>-29.89117076722463</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70.45270571928397</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" t="n">
-        <v>-26.76880738189304</v>
-      </c>
-      <c r="D25" t="n">
-        <v>73.9507813634668</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>19</v>
       </c>
-      <c r="C26" t="n">
-        <v>-31.2394852069691</v>
-      </c>
-      <c r="D26" t="n">
-        <v>71.39431982806035</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>19</v>
       </c>
-      <c r="C27" t="n">
-        <v>-34.16106523032527</v>
-      </c>
-      <c r="D27" t="n">
-        <v>70.98451437229643</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1109,12 +943,6 @@
       </c>
       <c r="B28" t="n">
         <v>18</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-32.21944509803892</v>
-      </c>
-      <c r="D28" t="n">
-        <v>70.66988438133897</v>
       </c>
     </row>
   </sheetData>
